--- a/biology/Zoologie/Badecla/Badecla.xlsx
+++ b/biology/Zoologie/Badecla/Badecla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Badecla est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Arzecla a été créé par Marcelo Duarte (d) et Robert K. Robbins (d) en 2010[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Arzecla a été créé par Marcelo Duarte (d) et Robert K. Robbins (d) en 2010.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Badecla argentinensis (K. Johnson &amp; Kroenlein) présent en Argentine
 Badecla badaca (Hewitson, 1868) présent au Brésil et en Guyane
@@ -577,7 +593,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Badecla sont présentes en Amérique du Sud.
 Sur les autres projets Wikimedia :
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Marcelo Duarte et Robert K. Robbins, « Description and phylogenetic analysis of the Calycopidina (Lepidoptera, Lycaenidae, Theclinae, Eumaeini): a subtribe of detritivores », Revista Brasileira de Entomologia, Elsevier et Entomological Society of Brazil (d), vol. 54, no 1,‎ mars 2010, p. 45-65 (ISSN 0085-5626 et 1806-9665, DOI 10.1590/S0085-56262010000100006, lire en ligne)</t>
         </is>
